--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_9.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9866122822444447</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7858743722273644</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.997521029527521</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9742869125416599</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9824887778290604</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08952373027617004</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H2" t="n">
-        <v>1.431859058873471</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01549402460673062</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3187910293448937</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K2" t="n">
-        <v>0.167142499666361</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6893189620167982</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2992051641870007</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N2" t="n">
-        <v>1.005636933791813</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3119429474665165</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P2" t="n">
-        <v>166.8265030921899</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q2" t="n">
-        <v>265.5554449065141</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_1</t>
+          <t>model_24_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9875687408339122</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7851643919584349</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9959769217247505</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9748294296663815</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9823355604119843</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08312788728431411</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H3" t="n">
-        <v>1.436606700200961</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02514498437296242</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3120648984239204</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1686049413984414</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8455551878172315</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2883190720093177</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005234214385721</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3005934118075121</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P3" t="n">
-        <v>166.9747500927239</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q3" t="n">
-        <v>265.7036919070482</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_2</t>
+          <t>model_24_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9881900935073662</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7842957134941811</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9937234486485252</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9752596623016153</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9818771681742073</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07897289909586176</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H4" t="n">
-        <v>1.442415557091322</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03922960848658635</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3067308713505025</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1729802399185444</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9937489545474375</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2810211719708353</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N4" t="n">
-        <v>1.004972592207425</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2929848250556558</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P4" t="n">
-        <v>167.077301069579</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q4" t="n">
-        <v>265.8062428839032</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_3</t>
+          <t>model_24_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9885438037417803</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7833244495802565</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9909122640330338</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.975602600174034</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9811794810543164</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07660763712964855</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H5" t="n">
-        <v>1.448910403355996</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05680003301969132</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3024791253271263</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1796395791734088</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L5" t="n">
-        <v>1.132952808329101</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2767808467536158</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N5" t="n">
-        <v>1.004823661582408</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O5" t="n">
-        <v>0.288563980415256</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P5" t="n">
-        <v>167.138117011548</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q5" t="n">
-        <v>265.8670588258722</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_4</t>
+          <t>model_24_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9886874739105957</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7822946528790872</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9876887307342556</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9758772727202993</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9803024511919011</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0756469140492395</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H6" t="n">
-        <v>1.455796658638493</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0769477131983666</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2990737332714828</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1880107232349247</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L6" t="n">
-        <v>1.262709971402788</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2750398408399036</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N6" t="n">
-        <v>1.004763168879749</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O6" t="n">
-        <v>0.286748856275418</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P6" t="n">
-        <v>167.1633572641103</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q6" t="n">
-        <v>265.8922990784346</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_5</t>
+          <t>model_24_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9886697345781108</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7812404779068307</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9841850938777285</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9760984575604539</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9792989744666807</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07576553704724803</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H7" t="n">
-        <v>1.462845931532001</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09884609249362035</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J7" t="n">
-        <v>0.296331482151986</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1975887873228032</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L7" t="n">
-        <v>1.382899288606936</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2752554033025474</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N7" t="n">
-        <v>1.004770638072374</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2869735956783724</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P7" t="n">
-        <v>167.1602234921802</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q7" t="n">
-        <v>265.8891653065045</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_6</t>
+          <t>model_24_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9885307705221177</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7801878954799374</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9805158126111629</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9762773991211728</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9782138244221874</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07669479032954511</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H8" t="n">
-        <v>1.469884555067333</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1217797800321931</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2941129634919223</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2079464133742088</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L8" t="n">
-        <v>1.493663522226061</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M8" t="n">
-        <v>0.276938242807932</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N8" t="n">
-        <v>1.004829149253845</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2887280771454592</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P8" t="n">
-        <v>167.135842991215</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q8" t="n">
-        <v>265.8647848055392</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_7</t>
+          <t>model_24_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9883036368945579</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7791560068882587</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9767770662653656</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9764229717817686</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9770842702885673</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07821363394289139</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H9" t="n">
-        <v>1.476784798831299</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.145147637182254</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2923081526775467</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2187278710907952</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L9" t="n">
-        <v>1.59530708473329</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2796670054598708</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N9" t="n">
-        <v>1.004924784465449</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2915730088728084</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P9" t="n">
-        <v>167.0966225990635</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q9" t="n">
-        <v>265.8255644133878</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_8</t>
+          <t>model_24_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9880148466483739</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7781586926873241</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9730462999844262</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9765420136404027</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9759400889002882</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08014477564888031</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H10" t="n">
-        <v>1.483453843485159</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I10" t="n">
-        <v>0.16846561744889</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2908322709223671</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2296489441856285</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L10" t="n">
-        <v>1.688264441171679</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2830985263982847</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N10" t="n">
-        <v>1.005046380358579</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2951506167617983</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P10" t="n">
-        <v>167.0478411684469</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q10" t="n">
-        <v>265.7767829827711</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_9</t>
+          <t>model_24_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9876855357062863</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7772054898102195</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D11" t="n">
-        <v>0.969384353099139</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E11" t="n">
-        <v>0.976639761341844</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9748046144245323</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08234687943495821</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H11" t="n">
-        <v>1.489827915513452</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1913534637460033</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J11" t="n">
-        <v>0.289620394269707</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2404869108525214</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L11" t="n">
-        <v>1.773039319437797</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2869614598425339</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N11" t="n">
-        <v>1.005185037597353</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2991780032801438</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P11" t="n">
-        <v>166.9936294340107</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q11" t="n">
-        <v>265.7225712483349</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_10</t>
+          <t>model_24_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9873322999034967</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7763025253410453</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9658370096642428</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9767205069319672</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9736956163384934</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08470896887471291</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H12" t="n">
-        <v>1.495866043076589</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I12" t="n">
-        <v>0.213525017251375</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2886193099062616</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2510721635788183</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L12" t="n">
-        <v>1.850172649682218</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2910480525183305</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N12" t="n">
-        <v>1.005333768461686</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3034385706665621</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P12" t="n">
-        <v>166.9370675860558</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q12" t="n">
-        <v>265.6660094003801</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_11</t>
+          <t>model_24_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9869678820107941</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7754534180203467</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9624373299398694</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9767874540309404</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9726260052396295</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08714583300120524</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H13" t="n">
-        <v>1.50154402763988</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2347736452157777</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J13" t="n">
-        <v>0.287789299327879</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2612814722718283</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L13" t="n">
-        <v>1.920222823944363</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2952047306551933</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N13" t="n">
-        <v>1.005487207574403</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O13" t="n">
-        <v>0.307772207197221</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P13" t="n">
-        <v>166.880344644518</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q13" t="n">
-        <v>265.6092864588422</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9866020113563974</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7746597179928975</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9592077431975018</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9768433425011031</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9716049022293671</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08959241175183635</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H14" t="n">
-        <v>1.506851503378086</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2549591605381021</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2870963937030468</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2710277771205744</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L14" t="n">
-        <v>1.983744558257027</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2993199153946098</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N14" t="n">
-        <v>1.005641258376254</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3120625838706013</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P14" t="n">
-        <v>166.8249693057147</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q14" t="n">
-        <v>265.5539111200389</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_13</t>
+          <t>model_24_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9862418426174121</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7739215168553115</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9561621547830909</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E15" t="n">
-        <v>0.976890142593776</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9706381396590006</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09200086176785531</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H15" t="n">
-        <v>1.511787857784227</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2739946522306146</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2865161658427862</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2802554090367004</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L15" t="n">
-        <v>2.04127336507719</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3033164383409764</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N15" t="n">
-        <v>1.005792908371616</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3162292470727376</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P15" t="n">
-        <v>166.7719146698701</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q15" t="n">
-        <v>265.5008564841943</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_14</t>
+          <t>model_24_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9858926514179149</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7732379452015655</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9533081585307729</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9769295494846308</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9697293063306914</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0943359049267702</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H16" t="n">
-        <v>1.516358904580385</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2918326574234363</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2860275989478442</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2889301133372257</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L16" t="n">
-        <v>2.093313432936315</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3071415063562237</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N16" t="n">
-        <v>1.005939936245088</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3202171561523764</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P16" t="n">
-        <v>166.7217868193415</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q16" t="n">
-        <v>265.4507286336657</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_15</t>
+          <t>model_24_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9855580124553069</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7726071403002474</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9506472166919445</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9769629343912359</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.968879766882779</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09657363721060058</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H17" t="n">
-        <v>1.520577099860088</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3084640367745013</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2856136926536869</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2970388647140941</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L17" t="n">
-        <v>2.140357057240783</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3107629920222171</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N17" t="n">
-        <v>1.006080836860923</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O17" t="n">
-        <v>0.32399281596068</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P17" t="n">
-        <v>166.6748989634641</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q17" t="n">
-        <v>265.4038407777883</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_16</t>
+          <t>model_24_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9852403359979445</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7720268246957934</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9481776370694782</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9769912778212462</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9680896087383419</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09869794114374861</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H18" t="n">
-        <v>1.52445767297918</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3238993668292835</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2852622906198873</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3045808287245854</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L18" t="n">
-        <v>2.182846596770558</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3141622847251856</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N18" t="n">
-        <v>1.006214595369286</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3275368235915199</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P18" t="n">
-        <v>166.6313823849988</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q18" t="n">
-        <v>265.360324199323</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_17</t>
+          <t>model_24_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9849409492705987</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7714943368542537</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9458938172803912</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9770153146454288</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9673574733314396</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1006999415680589</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H19" t="n">
-        <v>1.528018421627437</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3381736635190971</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2849642819137852</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3115689727164411</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L19" t="n">
-        <v>2.221210175324174</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M19" t="n">
-        <v>0.317332540985098</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N19" t="n">
-        <v>1.006340652938695</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3308420442237519</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P19" t="n">
-        <v>166.5912201190308</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q19" t="n">
-        <v>265.320161933355</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_18</t>
+          <t>model_24_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9846606794422028</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7710069000298793</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9437891019122867</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9770359582874141</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9666817748416849</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1025741072010662</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H20" t="n">
-        <v>1.531277913916469</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3513285244041345</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2847083419031355</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K20" t="n">
-        <v>0.318018433153635</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L20" t="n">
-        <v>2.255826746250466</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3202719269637385</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N20" t="n">
-        <v>1.006458661287494</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3339065659488709</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P20" t="n">
-        <v>166.5543394891132</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q20" t="n">
-        <v>265.2832813034374</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_19</t>
+          <t>model_24_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9843996788386027</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7705615409974917</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9418548071344728</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9770538244724584</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9660600699807131</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1043194194391375</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H21" t="n">
-        <v>1.534256031816734</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3634182250346343</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2844868368221161</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3239525309283752</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L21" t="n">
-        <v>2.287046789360108</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3229851690699397</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N21" t="n">
-        <v>1.006568556278483</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3367353163887185</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P21" t="n">
-        <v>166.5205954920232</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q21" t="n">
-        <v>265.2495373063474</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_20</t>
+          <t>model_24_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9841576059704394</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7701553397268385</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9400814205671472</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9770690887244725</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9654893582920474</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1059381618231885</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H22" t="n">
-        <v>1.536972301583978</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3745022195462395</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2842975905241106</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K22" t="n">
-        <v>0.329399905035175</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L22" t="n">
-        <v>2.315198858229106</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3254814308423577</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N22" t="n">
-        <v>1.006670481696657</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3393378491927626</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P22" t="n">
-        <v>166.4897994682567</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q22" t="n">
-        <v>265.2187412825809</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_21</t>
+          <t>model_24_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9839339652014188</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7697854328204832</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D23" t="n">
-        <v>0.938459003785228</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9770823041774578</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9649667450696592</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1074336486753999</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H23" t="n">
-        <v>1.53944587077004</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3846426249365029</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2841337452500938</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3343881850932983</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L23" t="n">
-        <v>2.340578447766122</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3277707257755028</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N23" t="n">
-        <v>1.006764646230982</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3417246041507055</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P23" t="n">
-        <v>166.4617636871966</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q23" t="n">
-        <v>265.1907055015208</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_22</t>
+          <t>model_24_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9837280377048926</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7694490341920901</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9369777048032792</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9770937465179256</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9644891849567447</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1088106867928804</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H24" t="n">
-        <v>1.541695369947077</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3939010179391785</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2839918830368627</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3389464386654523</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L24" t="n">
-        <v>2.363445873513919</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3298646492015784</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N24" t="n">
-        <v>1.006851352545308</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3439076702320482</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P24" t="n">
-        <v>166.4362914503694</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q24" t="n">
-        <v>265.1652332646937</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_23</t>
+          <t>model_24_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.983538933652721</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7691434123340586</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9356271845062956</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9771037900967623</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9640535322291217</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1100752264604957</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H25" t="n">
-        <v>1.543739064718994</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4023420199380559</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2838673626796377</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3431046913088468</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L25" t="n">
-        <v>2.384053614355663</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3317758678091215</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N25" t="n">
-        <v>1.006930975304117</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3459002533724823</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P25" t="n">
-        <v>166.4131825400268</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q25" t="n">
-        <v>265.142124354351</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.983365666911688</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7688660700201362</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9343977594977539</v>
+        <v>0.9980593180862857</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9771125075408005</v>
+        <v>0.9952689262732625</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9636566673261635</v>
+        <v>0.99819417593366</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1112338619556034</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H26" t="n">
-        <v>1.545593654049237</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4100261539549594</v>
+        <v>0.02007173935590124</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2837592837504672</v>
+        <v>0.006647175351561794</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3468927188527133</v>
+        <v>0.01335945735373152</v>
       </c>
       <c r="L26" t="n">
-        <v>2.402617361894505</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3335174087744197</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N26" t="n">
-        <v>1.007003929721394</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3477159353421601</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P26" t="n">
-        <v>166.3922408590628</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q26" t="n">
-        <v>265.121182673387</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
   </sheetData>
